--- a/excel/Описание_работ/7/Обществознание/KS.xlsx
+++ b/excel/Описание_работ/7/Обществознание/KS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Код</t>
   </si>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
   </si>
 </sst>
 </file>
@@ -595,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,209 +756,229 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>43</v>
       </c>
     </row>
